--- a/signlanguagedataset.xlsx
+++ b/signlanguagedataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raman\Dropbox\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raman\OneDrive\Desktop\Signlanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC3363-E05F-49A0-A21F-96E5B40DEEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53297535-23EB-454A-87FB-E4F783139268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9DE10694-A5C7-4D57-8BF1-E5F5E4A8EA67}"/>
   </bookViews>
@@ -42,15 +42,9 @@
     <t>video_type</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/hello.mp4</t>
-  </si>
-  <si>
     <t>.mp4</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/BOOK.mp4</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>VideoFilePath</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/A.mp4</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -81,21 +72,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/B.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/C.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/D.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/E.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/F.mp4</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -156,318 +132,135 @@
     <t>i</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/G.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/H.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/I.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/J.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/K.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/L.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/M.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/N.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/O.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/P.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/Q.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/R.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/S.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/T.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/U.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/V.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/W.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/X.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/Y.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/Z.mp4</t>
-  </si>
-  <si>
     <t>see you later</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/seeyoulater.mp4</t>
-  </si>
-  <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/Me.mp4</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
     <t>me</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/Father.mp4</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/mother.mp4</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/yes.mp4</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/no.mp4</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/help.mp4</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/please.mp4</t>
-  </si>
-  <si>
     <t>thank you</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/thankyou.mp4</t>
-  </si>
-  <si>
     <t>want</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/want.mp4</t>
-  </si>
-  <si>
     <t>what</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/what.mp4</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/dog.mp4</t>
-  </si>
-  <si>
     <t>cat</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/cat.mp4</t>
-  </si>
-  <si>
     <t>again</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/again.mp4</t>
-  </si>
-  <si>
     <t>repeat</t>
   </si>
   <si>
     <t>eat</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/eat.mp4</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/food.mp4</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/good.mp4</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>morning</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/morning.mp4</t>
-  </si>
-  <si>
     <t>afternoon</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/afternoon.mp4</t>
-  </si>
-  <si>
     <t>night</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/night.mp4</t>
-  </si>
-  <si>
     <t>goodbye</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/goodbye.mp4</t>
-  </si>
-  <si>
     <t>take care</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/takecare.mp4</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/nice.mp4</t>
-  </si>
-  <si>
     <t>meet</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/meet.mp4</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/you.mp4</t>
-  </si>
-  <si>
     <t>see</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/see.mp4</t>
-  </si>
-  <si>
     <t>later</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/later.mp4</t>
-  </si>
-  <si>
     <t xml:space="preserve">how </t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/how.mp4</t>
-  </si>
-  <si>
     <t xml:space="preserve">fine </t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/fine.mp4</t>
-  </si>
-  <si>
     <t>busy</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/busy.mp4</t>
-  </si>
-  <si>
     <t>sad</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/sad.mp4</t>
-  </si>
-  <si>
     <t>milk</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/milk.mp4</t>
-  </si>
-  <si>
     <t xml:space="preserve">go to </t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/goto.mp4</t>
-  </si>
-  <si>
     <t>more</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/more.mp4</t>
-  </si>
-  <si>
     <t>bathroom</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/bathroom.mp4</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/learn.mp4</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/like.mp4</t>
-  </si>
-  <si>
     <t>sign</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/sign.mp4</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/happy.mp4</t>
-  </si>
-  <si>
     <t>how are you</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/how are you.mp4</t>
-  </si>
-  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/slow.mp4</t>
-  </si>
-  <si>
     <t>scared</t>
   </si>
   <si>
@@ -477,9 +270,6 @@
     <t>terrified</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/scared.mp4</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -501,18 +291,12 @@
     <t>mad</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/mad.mp4</t>
-  </si>
-  <si>
     <t>angry</t>
   </si>
   <si>
     <t>confused</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/confused.mp4</t>
-  </si>
-  <si>
     <t>confusing</t>
   </si>
   <si>
@@ -522,15 +306,9 @@
     <t>nothing much</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/nothing.mp4</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/bad.mp4</t>
-  </si>
-  <si>
     <t>not good</t>
   </si>
   <si>
@@ -540,91 +318,313 @@
     <t>about</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/about.mp4</t>
-  </si>
-  <si>
     <t>after</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/after.mp4</t>
-  </si>
-  <si>
     <t>before</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/before.mp4</t>
-  </si>
-  <si>
     <t>around</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/around.mp4</t>
-  </si>
-  <si>
     <t>as</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/as.mp4</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/at.mp4</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/in.mp4</t>
-  </si>
-  <si>
     <t>front</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/front.mp4</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/of.mp4</t>
-  </si>
-  <si>
     <t>between</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/between.mp4</t>
-  </si>
-  <si>
     <t>beyond</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/beyond.mp4</t>
-  </si>
-  <si>
     <t>but</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/but.mp4</t>
-  </si>
-  <si>
     <t>by</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/by.mp4</t>
-  </si>
-  <si>
     <t>for</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/for.mp4</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
-    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/from.mp4</t>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/hello.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/BOOK.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/A.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/B.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/C.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/D.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/E.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/F.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/G.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/H.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/I.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/J.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/K.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/L.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/M.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/N.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/O.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/P.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/Q.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/R.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/S.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/T.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/U.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/V.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/W.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/X.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/Y.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/Z.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/seeyoulater.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/Me.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/Father.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/mother.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/yes.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/no.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/help.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/please.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/thankyou.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/want.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/what.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/dog.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/cat.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/again.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/eat.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/food.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/good.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/morning.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/afternoon.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/night.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/goodbye.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/takecare.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/nice.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/meet.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/you.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/see.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/later.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/how.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/fine.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/busy.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/sad.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/milk.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/goto.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/more.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/bathroom.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/learn.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/like.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/sign.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/happy.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/how are you.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/slow.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/scared.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/mad.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/confused.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/nothing.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/bad.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/about.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/after.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/before.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/around.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/as.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/at.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/in.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/front.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/of.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/between.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/beyond.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/but.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/by.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/for.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Raman/OneDrive/Desktop/Signlanguage/text to sign data/from.mp4</t>
   </si>
 </sst>
 </file>
@@ -996,23 +996,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7461CAE-E2E7-427B-BA97-93788828E8C5}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.1015625" customWidth="1"/>
-    <col min="2" max="2" width="58.68359375" customWidth="1"/>
+    <col min="2" max="2" width="68.62890625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1023,1143 +1023,1143 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
